--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.5862096666666666</v>
+      </c>
+      <c r="H2">
+        <v>1.758629</v>
+      </c>
+      <c r="I2">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="J2">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.02140866666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.06422600000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.0001839850293375998</v>
-      </c>
-      <c r="J2">
-        <v>0.0001839850293375997</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.396544333333333</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N2">
-        <v>7.189633</v>
+        <v>0.212759</v>
       </c>
       <c r="O2">
-        <v>0.2442214476712194</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P2">
-        <v>0.2442214476712194</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q2">
-        <v>0.05130681878422223</v>
+        <v>0.04157379415677778</v>
       </c>
       <c r="R2">
-        <v>0.461761369058</v>
+        <v>0.374164147411</v>
       </c>
       <c r="S2">
-        <v>4.493309021466039E-05</v>
+        <v>2.617474063411119E-05</v>
       </c>
       <c r="T2">
-        <v>4.493309021466039E-05</v>
+        <v>2.617474063411118E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H3">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I3">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J3">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.586282</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N3">
-        <v>1.758846</v>
+        <v>10.781701</v>
       </c>
       <c r="O3">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P3">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q3">
-        <v>0.01255151591066667</v>
+        <v>2.106779116436555</v>
       </c>
       <c r="R3">
-        <v>0.112963643196</v>
+        <v>18.961012047929</v>
       </c>
       <c r="S3">
-        <v>1.099226984071295E-05</v>
+        <v>0.001326422042167604</v>
       </c>
       <c r="T3">
-        <v>1.099226984071295E-05</v>
+        <v>0.001326422042167603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.5862096666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.758629</v>
+      </c>
+      <c r="I4">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="J4">
+        <v>0.004018635577031636</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.02140866666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.06422600000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.0001839850293375998</v>
-      </c>
-      <c r="J4">
-        <v>0.0001839850293375997</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.932926</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N4">
-        <v>11.798778</v>
+        <v>0.150307</v>
       </c>
       <c r="O4">
-        <v>0.4007874454664563</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P4">
-        <v>0.4007874454664564</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q4">
-        <v>0.08419870175866669</v>
+        <v>0.02937047212255555</v>
       </c>
       <c r="R4">
-        <v>0.7577883158280001</v>
+        <v>0.264334249103</v>
       </c>
       <c r="S4">
-        <v>7.373888991228764E-05</v>
+        <v>1.849156435446373E-05</v>
       </c>
       <c r="T4">
-        <v>7.373888991228764E-05</v>
+        <v>1.849156435446373E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H5">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I5">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J5">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.897244666666667</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N5">
-        <v>8.691734</v>
+        <v>4.154458</v>
       </c>
       <c r="O5">
-        <v>0.2952456488743109</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P5">
-        <v>0.295245648874311</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q5">
-        <v>0.06202614532044446</v>
+        <v>0.8117944797868889</v>
       </c>
       <c r="R5">
-        <v>0.5582353078840001</v>
+        <v>7.306150318082</v>
       </c>
       <c r="S5">
-        <v>5.432077936993877E-05</v>
+        <v>0.0005111034580220263</v>
       </c>
       <c r="T5">
-        <v>5.432077936993878E-05</v>
+        <v>0.0005111034580220261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.726732</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H6">
-        <v>8.180195999999999</v>
+        <v>1.758629</v>
       </c>
       <c r="I6">
-        <v>0.02343340081971968</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J6">
-        <v>0.02343340081971967</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.396544333333333</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N6">
-        <v>7.189633</v>
+        <v>17.365889</v>
       </c>
       <c r="O6">
-        <v>0.2442214476712194</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P6">
-        <v>0.2442214476712194</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q6">
-        <v>6.534734123118666</v>
+        <v>3.393350667353444</v>
       </c>
       <c r="R6">
-        <v>58.81260710806799</v>
+        <v>30.540156006181</v>
       </c>
       <c r="S6">
-        <v>0.00572293907205188</v>
+        <v>0.002136443771853432</v>
       </c>
       <c r="T6">
-        <v>0.005722939072051879</v>
+        <v>0.002136443771853431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>2.726732</v>
       </c>
       <c r="H7">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I7">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J7">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.586282</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N7">
-        <v>1.758846</v>
+        <v>0.212759</v>
       </c>
       <c r="O7">
-        <v>0.05974545798801324</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P7">
-        <v>0.05974545798801324</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q7">
-        <v>1.598633890424</v>
+        <v>0.1933789245293334</v>
       </c>
       <c r="R7">
-        <v>14.387705013816</v>
+        <v>1.740410320764</v>
       </c>
       <c r="S7">
-        <v>0.001400039264190837</v>
+        <v>0.0001217508119314499</v>
       </c>
       <c r="T7">
-        <v>0.001400039264190837</v>
+        <v>0.0001217508119314499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,13 +918,13 @@
         <v>2.726732</v>
       </c>
       <c r="H8">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I8">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J8">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932926</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N8">
-        <v>11.798778</v>
+        <v>10.781701</v>
       </c>
       <c r="O8">
-        <v>0.4007874454664563</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P8">
-        <v>0.4007874454664564</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q8">
-        <v>10.724035177832</v>
+        <v>9.799603043710668</v>
       </c>
       <c r="R8">
-        <v>96.51631660048798</v>
+        <v>88.19642739339601</v>
       </c>
       <c r="S8">
-        <v>0.009391812853127013</v>
+        <v>0.006169801751052249</v>
       </c>
       <c r="T8">
-        <v>0.009391812853127013</v>
+        <v>0.006169801751052246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,48 +980,48 @@
         <v>2.726732</v>
       </c>
       <c r="H9">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I9">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J9">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.897244666666667</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N9">
-        <v>8.691734</v>
+        <v>0.150307</v>
       </c>
       <c r="O9">
-        <v>0.2952456488743109</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P9">
-        <v>0.295245648874311</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q9">
-        <v>7.900009744429333</v>
+        <v>0.1366156355746667</v>
       </c>
       <c r="R9">
-        <v>71.10008769986399</v>
+        <v>1.229540720172</v>
       </c>
       <c r="S9">
-        <v>0.006918609630349946</v>
+        <v>8.601280927707142E-05</v>
       </c>
       <c r="T9">
-        <v>0.006918609630349946</v>
+        <v>8.601280927707138E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H10">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I10">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J10">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.396544333333333</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N10">
-        <v>7.189633</v>
+        <v>4.154458</v>
       </c>
       <c r="O10">
-        <v>0.2442214476712194</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P10">
-        <v>0.2442214476712194</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q10">
-        <v>49.98161284809245</v>
+        <v>3.776031190418667</v>
       </c>
       <c r="R10">
-        <v>449.834515632832</v>
+        <v>33.984280713768</v>
       </c>
       <c r="S10">
-        <v>0.0437725115763404</v>
+        <v>0.002377378323056169</v>
       </c>
       <c r="T10">
-        <v>0.04377251157634041</v>
+        <v>0.002377378323056168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H11">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I11">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J11">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.586282</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N11">
-        <v>1.758846</v>
+        <v>17.365889</v>
       </c>
       <c r="O11">
-        <v>0.05974545798801324</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P11">
-        <v>0.05974545798801324</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q11">
-        <v>12.22732228910933</v>
+        <v>15.78404174824933</v>
       </c>
       <c r="R11">
-        <v>110.045900601984</v>
+        <v>142.056375734244</v>
       </c>
       <c r="S11">
-        <v>0.01070835005013469</v>
+        <v>0.009937587061705659</v>
       </c>
       <c r="T11">
-        <v>0.01070835005013469</v>
+        <v>0.009937587061705656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>44.08018233333333</v>
+      </c>
+      <c r="H12">
+        <v>132.240547</v>
+      </c>
+      <c r="I12">
+        <v>0.3021823061602671</v>
+      </c>
+      <c r="J12">
+        <v>0.302182306160267</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>20.85570133333333</v>
-      </c>
-      <c r="H12">
-        <v>62.567104</v>
-      </c>
-      <c r="I12">
-        <v>0.1792328724349742</v>
-      </c>
-      <c r="J12">
-        <v>0.1792328724349742</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>3.932926</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N12">
-        <v>11.798778</v>
+        <v>0.212759</v>
       </c>
       <c r="O12">
-        <v>0.4007874454664563</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P12">
-        <v>0.4007874454664564</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q12">
-        <v>82.02393002210134</v>
+        <v>3.126151837685889</v>
       </c>
       <c r="R12">
-        <v>738.2153701989121</v>
+        <v>28.135366539173</v>
       </c>
       <c r="S12">
-        <v>0.07183428508682856</v>
+        <v>0.001968216161019744</v>
       </c>
       <c r="T12">
-        <v>0.07183428508682856</v>
+        <v>0.001968216161019743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>20.85570133333333</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H13">
-        <v>62.567104</v>
+        <v>132.240547</v>
       </c>
       <c r="I13">
-        <v>0.1792328724349742</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J13">
-        <v>0.1792328724349742</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.897244666666667</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N13">
-        <v>8.691734</v>
+        <v>10.781701</v>
       </c>
       <c r="O13">
-        <v>0.2952456488743109</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P13">
-        <v>0.295245648874311</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q13">
-        <v>60.42406945759289</v>
+        <v>158.4197819811608</v>
       </c>
       <c r="R13">
-        <v>543.816625118336</v>
+        <v>1425.778037830447</v>
       </c>
       <c r="S13">
-        <v>0.05291772572167056</v>
+        <v>0.09974063683079321</v>
       </c>
       <c r="T13">
-        <v>0.05291772572167057</v>
+        <v>0.09974063683079315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>44.08018233333333</v>
+      </c>
+      <c r="H14">
+        <v>132.240547</v>
+      </c>
+      <c r="I14">
+        <v>0.3021823061602671</v>
+      </c>
+      <c r="J14">
+        <v>0.302182306160267</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.04840700000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.145221</v>
-      </c>
-      <c r="I14">
-        <v>0.0004160073793391396</v>
-      </c>
-      <c r="J14">
-        <v>0.0004160073793391395</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>2.396544333333333</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N14">
-        <v>7.189633</v>
+        <v>0.150307</v>
       </c>
       <c r="O14">
-        <v>0.2442214476712194</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P14">
-        <v>0.2442214476712194</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q14">
-        <v>0.1160095215436667</v>
+        <v>2.208519988658778</v>
       </c>
       <c r="R14">
-        <v>1.044085693893</v>
+        <v>19.876679897929</v>
       </c>
       <c r="S14">
-        <v>0.0001015979244241148</v>
+        <v>0.001390477801241755</v>
       </c>
       <c r="T14">
-        <v>0.0001015979244241148</v>
+        <v>0.001390477801241755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H15">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I15">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J15">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.586282</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N15">
-        <v>1.758846</v>
+        <v>4.154458</v>
       </c>
       <c r="O15">
-        <v>0.05974545798801324</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P15">
-        <v>0.05974545798801324</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q15">
-        <v>0.028380152774</v>
+        <v>61.04308871205845</v>
       </c>
       <c r="R15">
-        <v>0.255421374966</v>
+        <v>549.387798408526</v>
       </c>
       <c r="S15">
-        <v>2.485455140501005E-05</v>
+        <v>0.03843255221108278</v>
       </c>
       <c r="T15">
-        <v>2.485455140501005E-05</v>
+        <v>0.03843255221108276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H16">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I16">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J16">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932926</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N16">
-        <v>11.798778</v>
+        <v>17.365889</v>
       </c>
       <c r="O16">
-        <v>0.4007874454664563</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P16">
-        <v>0.4007874454664564</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q16">
-        <v>0.190381148882</v>
+        <v>255.1638511668092</v>
       </c>
       <c r="R16">
-        <v>1.713430339938</v>
+        <v>2296.474660501283</v>
       </c>
       <c r="S16">
-        <v>0.0001667305348605288</v>
+        <v>0.1606504231561297</v>
       </c>
       <c r="T16">
-        <v>0.0001667305348605288</v>
+        <v>0.1606504231561296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,51 +1473,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04840700000000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H17">
         <v>0.145221</v>
       </c>
       <c r="I17">
-        <v>0.0004160073793391396</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J17">
-        <v>0.0004160073793391395</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.897244666666667</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N17">
-        <v>8.691734</v>
+        <v>0.212759</v>
       </c>
       <c r="O17">
-        <v>0.2952456488743109</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P17">
-        <v>0.295245648874311</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q17">
-        <v>0.1402469225793334</v>
+        <v>0.003433008304333334</v>
       </c>
       <c r="R17">
-        <v>1.262222303214</v>
+        <v>0.030897074739</v>
       </c>
       <c r="S17">
-        <v>0.0001228243686494859</v>
+        <v>2.161412105467532E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001228243686494859</v>
+        <v>2.161412105467532E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H18">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I18">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J18">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.396544333333333</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N18">
-        <v>7.189633</v>
+        <v>10.781701</v>
       </c>
       <c r="O18">
-        <v>0.2442214476712194</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P18">
-        <v>0.2442214476712194</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q18">
-        <v>199.6420359016747</v>
+        <v>0.1739699334356667</v>
       </c>
       <c r="R18">
-        <v>1796.778323115072</v>
+        <v>1.565729400921</v>
       </c>
       <c r="S18">
-        <v>0.1748409630995679</v>
+        <v>0.0001095309672396063</v>
       </c>
       <c r="T18">
-        <v>0.1748409630995679</v>
+        <v>0.0001095309672396063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H19">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I19">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J19">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.586282</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N19">
-        <v>1.758846</v>
+        <v>0.150307</v>
       </c>
       <c r="O19">
-        <v>0.05974545798801324</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P19">
-        <v>0.05974545798801324</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q19">
-        <v>48.839710772096</v>
+        <v>0.002425303649666667</v>
       </c>
       <c r="R19">
-        <v>439.557396948864</v>
+        <v>0.021827732847</v>
       </c>
       <c r="S19">
-        <v>0.04277246537950166</v>
+        <v>1.52696416760987E-06</v>
       </c>
       <c r="T19">
-        <v>0.04277246537950165</v>
+        <v>1.52696416760987E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H20">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I20">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J20">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.932926</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N20">
-        <v>11.798778</v>
+        <v>4.154458</v>
       </c>
       <c r="O20">
-        <v>0.4007874454664563</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P20">
-        <v>0.4007874454664564</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q20">
-        <v>327.628970918528</v>
+        <v>0.06703494946866667</v>
       </c>
       <c r="R20">
-        <v>2948.660738266752</v>
+        <v>0.603314545218</v>
       </c>
       <c r="S20">
-        <v>0.2869283743576332</v>
+        <v>4.220501042426611E-05</v>
       </c>
       <c r="T20">
-        <v>0.2869283743576332</v>
+        <v>4.220501042426609E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H21">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I21">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J21">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.897244666666667</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N21">
-        <v>8.691734</v>
+        <v>17.365889</v>
       </c>
       <c r="O21">
-        <v>0.2952456488743109</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P21">
-        <v>0.295245648874311</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q21">
-        <v>241.3524405593174</v>
+        <v>0.2802101962743333</v>
       </c>
       <c r="R21">
-        <v>2172.171965033856</v>
+        <v>2.521891766468999</v>
       </c>
       <c r="S21">
-        <v>0.2113697797321866</v>
+        <v>0.0001764195296406048</v>
       </c>
       <c r="T21">
-        <v>0.2113697797321866</v>
+        <v>0.0001764195296406048</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H22">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>2.396544333333333</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N22">
-        <v>7.189633</v>
+        <v>0.212759</v>
       </c>
       <c r="O22">
-        <v>0.2442214476712194</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P22">
-        <v>0.2442214476712194</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q22">
-        <v>22.53839624575856</v>
+        <v>6.813346487064334</v>
       </c>
       <c r="R22">
-        <v>202.845566211827</v>
+        <v>61.320118383579</v>
       </c>
       <c r="S22">
-        <v>0.01973850290862044</v>
+        <v>0.004289663254614618</v>
       </c>
       <c r="T22">
-        <v>0.01973850290862044</v>
+        <v>0.004289663254614616</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H23">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.586282</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N23">
-        <v>1.758846</v>
+        <v>10.781701</v>
       </c>
       <c r="O23">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P23">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q23">
-        <v>5.513712324852666</v>
+        <v>345.2707741290757</v>
       </c>
       <c r="R23">
-        <v>49.623410923674</v>
+        <v>3107.436967161681</v>
       </c>
       <c r="S23">
-        <v>0.004828756472940333</v>
+        <v>0.2173814814035678</v>
       </c>
       <c r="T23">
-        <v>0.004828756472940334</v>
+        <v>0.2173814814035677</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H24">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>3.932926</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N24">
-        <v>11.798778</v>
+        <v>0.150307</v>
       </c>
       <c r="O24">
-        <v>0.4007874454664563</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P24">
-        <v>0.4007874454664564</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q24">
-        <v>36.98735857306467</v>
+        <v>4.813397649129667</v>
       </c>
       <c r="R24">
-        <v>332.886227157582</v>
+        <v>43.320578842167</v>
       </c>
       <c r="S24">
-        <v>0.03239250374409471</v>
+        <v>0.003030501247004165</v>
       </c>
       <c r="T24">
-        <v>0.03239250374409471</v>
+        <v>0.003030501247004164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>96.071327</v>
+      </c>
+      <c r="H25">
+        <v>288.213981</v>
+      </c>
+      <c r="I25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.384819333333333</v>
+      </c>
+      <c r="N25">
+        <v>4.154458</v>
+      </c>
+      <c r="O25">
+        <v>0.1271833308158668</v>
+      </c>
+      <c r="P25">
+        <v>0.1271833308158667</v>
+      </c>
+      <c r="Q25">
+        <v>133.0414310085887</v>
+      </c>
+      <c r="R25">
+        <v>1197.372879077298</v>
+      </c>
+      <c r="S25">
+        <v>0.08376250041333026</v>
+      </c>
+      <c r="T25">
+        <v>0.08376250041333022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>96.071327</v>
+      </c>
+      <c r="H26">
+        <v>288.213981</v>
+      </c>
+      <c r="I26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.788629666666666</v>
+      </c>
+      <c r="N26">
+        <v>17.365889</v>
+      </c>
+      <c r="O26">
+        <v>0.5316341158337914</v>
+      </c>
+      <c r="P26">
+        <v>0.5316341158337913</v>
+      </c>
+      <c r="Q26">
+        <v>556.1213335882343</v>
+      </c>
+      <c r="R26">
+        <v>5005.092002294108</v>
+      </c>
+      <c r="S26">
+        <v>0.3501323841859388</v>
+      </c>
+      <c r="T26">
+        <v>0.3501323841859388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.404539666666667</v>
-      </c>
-      <c r="H25">
-        <v>28.213619</v>
-      </c>
-      <c r="I25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="J25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.897244666666667</v>
-      </c>
-      <c r="N25">
-        <v>8.691734</v>
-      </c>
-      <c r="O25">
-        <v>0.2952456488743109</v>
-      </c>
-      <c r="P25">
-        <v>0.295245648874311</v>
-      </c>
-      <c r="Q25">
-        <v>27.24725239170511</v>
-      </c>
-      <c r="R25">
-        <v>245.225271525346</v>
-      </c>
-      <c r="S25">
-        <v>0.0238623886420844</v>
-      </c>
-      <c r="T25">
-        <v>0.0238623886420844</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H27">
+        <v>7.079858</v>
+      </c>
+      <c r="I27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.07091966666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.212759</v>
+      </c>
+      <c r="O27">
+        <v>0.006513340195292141</v>
+      </c>
+      <c r="P27">
+        <v>0.00651334019529214</v>
+      </c>
+      <c r="Q27">
+        <v>0.1673670564691111</v>
+      </c>
+      <c r="R27">
+        <v>1.506303508222</v>
+      </c>
+      <c r="S27">
+        <v>0.0001053738149867523</v>
+      </c>
+      <c r="T27">
+        <v>0.0001053738149867522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H28">
+        <v>7.079858</v>
+      </c>
+      <c r="I28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.593900333333333</v>
+      </c>
+      <c r="N28">
+        <v>10.781701</v>
+      </c>
+      <c r="O28">
+        <v>0.3300677597512748</v>
+      </c>
+      <c r="P28">
+        <v>0.3300677597512747</v>
+      </c>
+      <c r="Q28">
+        <v>8.481434675384222</v>
+      </c>
+      <c r="R28">
+        <v>76.33291207845799</v>
+      </c>
+      <c r="S28">
+        <v>0.0053398867564544</v>
+      </c>
+      <c r="T28">
+        <v>0.005339886756454399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H29">
+        <v>7.079858</v>
+      </c>
+      <c r="I29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05010233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.150307</v>
+      </c>
+      <c r="O29">
+        <v>0.004601453403775049</v>
+      </c>
+      <c r="P29">
+        <v>0.004601453403775048</v>
+      </c>
+      <c r="Q29">
+        <v>0.1182391351562222</v>
+      </c>
+      <c r="R29">
+        <v>1.064152216406</v>
+      </c>
+      <c r="S29">
+        <v>7.444301772998449E-05</v>
+      </c>
+      <c r="T29">
+        <v>7.444301772998448E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H30">
+        <v>7.079858</v>
+      </c>
+      <c r="I30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.384819333333333</v>
+      </c>
+      <c r="N30">
+        <v>4.154458</v>
+      </c>
+      <c r="O30">
+        <v>0.1271833308158668</v>
+      </c>
+      <c r="P30">
+        <v>0.1271833308158667</v>
+      </c>
+      <c r="Q30">
+        <v>3.268108078551556</v>
+      </c>
+      <c r="R30">
+        <v>29.412972706964</v>
+      </c>
+      <c r="S30">
+        <v>0.002057591399951273</v>
+      </c>
+      <c r="T30">
+        <v>0.002057591399951272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.079858</v>
+      </c>
+      <c r="I31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.788629666666666</v>
+      </c>
+      <c r="N31">
+        <v>17.365889</v>
+      </c>
+      <c r="O31">
+        <v>0.5316341158337914</v>
+      </c>
+      <c r="P31">
+        <v>0.5316341158337913</v>
+      </c>
+      <c r="Q31">
+        <v>13.66089201819578</v>
+      </c>
+      <c r="R31">
+        <v>122.948028163762</v>
+      </c>
+      <c r="S31">
+        <v>0.00860085812852324</v>
+      </c>
+      <c r="T31">
+        <v>0.008600858128523238</v>
       </c>
     </row>
   </sheetData>
